--- a/Rest API/Script/1000NamesUpload.xlsx
+++ b/Rest API/Script/1000NamesUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranlev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranlev\Documents\Horizon OMS UAT\Rest API\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1601713-BD6C-4C38-A98D-CE268AA62CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF2F302-17EA-483C-870F-1C5FA5EBD7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{271672BA-F04A-4C09-A91C-73C18D91B465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{271672BA-F04A-4C09-A91C-73C18D91B465}"/>
   </bookViews>
   <sheets>
     <sheet name="SpreadRuleGroup" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Automaton" sheetId="7" r:id="rId7"/>
     <sheet name="GetPositions" sheetId="8" r:id="rId8"/>
     <sheet name="GetPositionsFrom" sheetId="9" r:id="rId9"/>
+    <sheet name="Scheduler" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
   <si>
     <t>spreadRuleGroupId</t>
   </si>
@@ -476,12 +477,141 @@
   </si>
   <si>
     <t>CFD-CL-MM</t>
+  </si>
+  <si>
+    <t>taskId</t>
+  </si>
+  <si>
+    <t>scheduleCommand</t>
+  </si>
+  <si>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>dayOfMonth</t>
+  </si>
+  <si>
+    <t>daysOfWeek</t>
+  </si>
+  <si>
+    <t>weekNumber</t>
+  </si>
+  <si>
+    <t>dayOfWeekNumber</t>
+  </si>
+  <si>
+    <t>scheduleTime</t>
+  </si>
+  <si>
+    <t>scheduleTimezone</t>
+  </si>
+  <si>
+    <t>checkBeforeExecutionDelay</t>
+  </si>
+  <si>
+    <t>scheduleCommandParameters</t>
+  </si>
+  <si>
+    <t>isEnabled</t>
+  </si>
+  <si>
+    <t>onSuccessTaskId</t>
+  </si>
+  <si>
+    <t>onWarningTaskId</t>
+  </si>
+  <si>
+    <t>onErrorTaskId</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>templateTaskId</t>
+  </si>
+  <si>
+    <t>AutomanScheduler</t>
+  </si>
+  <si>
+    <t>Europe/London</t>
+  </si>
+  <si>
+    <t>ranlev</t>
+  </si>
+  <si>
+    <t>21 - Contract Futures - Copper - Market Stop</t>
+  </si>
+  <si>
+    <t>21 - Contract Futures - Copper - OMS Start</t>
+  </si>
+  <si>
+    <t>21 - Contract Futures - Copper - OMS Stop</t>
+  </si>
+  <si>
+    <t>91 - Contract Futures -  Palladium - OMS Start</t>
+  </si>
+  <si>
+    <t>91 - Contract Futures - Palladuim - Market Start</t>
+  </si>
+  <si>
+    <t>91 - Contract Futures - Palladuim - OMS Stop</t>
+  </si>
+  <si>
+    <t>91 - Contrcat Futures - Palladium - Market Stop</t>
+  </si>
+  <si>
+    <t>America/Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includePrimaryProduct=true userId=ranlev context=DEFAULT toStart=false productId=21 ecoZone=ALL imsId=INTERNAL-MARKET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">includePrimaryProduct=true userId=ranlev context=DEFAULT toStart=true productId=21 ecoZone=ALL imsId=INTERNAL-MARKET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">includePrimaryProduct=true userId=ranlev context=DEFAULT toStart=true productId=91 ecoZone=ALL imsId=INTERNAL-MARKET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">includePrimaryProduct=true userId=ranlev context=DEFAULT toStart=false productId=91 ecoZone=ALL imsId=INTERNAL-MARKET </t>
+  </si>
+  <si>
+    <t>Stop IM Pricing for ID 21 (Market Hours)</t>
+  </si>
+  <si>
+    <t>Start IM Pricing for ID 21 (OMS Break Hours)</t>
+  </si>
+  <si>
+    <t>Stop IM Pricing for ID 21 (OMS Break Hours)</t>
+  </si>
+  <si>
+    <t>Start IM Pricing for ID 21 (Market Hours)</t>
+  </si>
+  <si>
+    <t>Start IM Pricing for ID 91 (OMS Break Hours)</t>
+  </si>
+  <si>
+    <t>Start IM Pricing for ID 91 (Market Hours)</t>
+  </si>
+  <si>
+    <t>Stop IM Pricing for ID 91  (OMS Break Hours)</t>
+  </si>
+  <si>
+    <t>Stop IM Pricing for ID 91 (Market Hours)</t>
+  </si>
+  <si>
+    <t>21 - Contract Futures - Copper - Market Start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,13 +659,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,6 +1254,657 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E06F2F-6B8B-48D8-BD38-61729644DBB3}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>111110</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.66672453703703705</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1115</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>111110</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>111110</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.1550925925925929E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1117</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1111100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1118</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>111110</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1119</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1111100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>111110</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.1550925925925929E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>111110</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.66672453703703705</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1F5C43-C2B1-4A70-98B2-FA722C78CCE9}">
   <dimension ref="A1:L3"/>
@@ -1842,226 +2624,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>117</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s">
         <v>119</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>124</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>126</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>127</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>131</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>5733</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>20000000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>20000000</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>140</v>
       </c>
-      <c r="O2" s="2" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="b">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>5733</v>
       </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>138</v>
       </c>
-      <c r="AG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>139</v>
       </c>
-      <c r="AK2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2087,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AFB000-E87C-42F6-87ED-34F9D906236B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
